--- a/管理端测试.xlsx
+++ b/管理端测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B0B620-BD04-C54A-9DCC-652B0F7940CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C234B5-2C8C-2C4F-BCAF-2FB76C067DFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
   <si>
     <t>商城管理</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>会员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,151 +783,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -1196,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:B86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1241,54 +1256,54 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="17">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="17">
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1296,41 +1311,41 @@
         <v>5</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="26"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="28" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="26"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="17">
-      <c r="B11" s="18"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="28" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="26"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="17">
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1338,13 +1353,13 @@
         <v>5</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="26"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="17">
-      <c r="B13" s="18"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1352,13 +1367,13 @@
         <v>5</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="26"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="B14" s="18"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="11" t="s">
         <v>9</v>
       </c>
@@ -1368,773 +1383,773 @@
       <c r="H14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17">
-      <c r="B15" s="18"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="31" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="23"/>
+      <c r="G15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="17">
-      <c r="B16" s="18"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="17">
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="17">
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="26"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="17">
-      <c r="B19" s="18"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="26"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="17">
-      <c r="B20" s="18"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="29" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="26"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:10" ht="17">
-      <c r="B21" s="18"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="29" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="26"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:10" ht="17">
-      <c r="B22" s="18"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="42" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:10" ht="17">
-      <c r="B23" s="18"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="24" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="58" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:10" ht="17">
-      <c r="B24" s="18"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="39" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="32" t="s">
         <v>32</v>
       </c>
       <c r="H24" s="12"/>
-      <c r="I24" s="27"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:10" ht="17">
-      <c r="B25" s="18"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="31" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="23"/>
+      <c r="G25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="2:10" ht="17">
-      <c r="B26" s="18"/>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="23"/>
+      <c r="G26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="2:10" ht="17">
-      <c r="B27" s="18"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="55" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="23"/>
+      <c r="G27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="2:10" ht="17">
-      <c r="B28" s="18"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="46" t="s">
+      <c r="B28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="25"/>
+      <c r="G28" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="2:10" ht="17">
-      <c r="B29" s="18"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="32" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="29" t="s">
+      <c r="I29" s="18"/>
+      <c r="J29" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17">
-      <c r="B30" s="18"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="39" t="s">
+      <c r="B30" s="49"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="27"/>
+      <c r="G30" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="2:10" ht="17">
-      <c r="B31" s="18"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="46" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="48" t="s">
+      <c r="G31" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="2:10" ht="17">
-      <c r="B32" s="18"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="39" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="27"/>
+      <c r="G32" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="2:9" ht="17">
-      <c r="B33" s="18"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="46" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="26"/>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="2:9" ht="17">
-      <c r="B34" s="18"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="32" t="s">
+      <c r="B34" s="49"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="26"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="2:9" ht="17">
-      <c r="B35" s="18"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="39" t="s">
+      <c r="B35" s="49"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="43" t="s">
+      <c r="G35" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="27"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="2:9" ht="17">
-      <c r="B36" s="18"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="54" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="27"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="2:9" ht="17">
-      <c r="B37" s="18"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="59" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="25"/>
+      <c r="G37" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="2:9" ht="17">
-      <c r="B38" s="18"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="29" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="26"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" spans="2:9" ht="17">
-      <c r="B39" s="18"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="50" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="32" t="s">
         <v>32</v>
       </c>
       <c r="H39" s="12"/>
-      <c r="I39" s="27"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="2:9" ht="17">
-      <c r="B40" s="18"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="54" t="s">
+      <c r="B40" s="49"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="23"/>
+      <c r="G40" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="2:9" ht="17">
-      <c r="B41" s="18"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="59" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="50" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="25"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="2:9" ht="17">
-      <c r="B42" s="18"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="29" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="26"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="2:9" ht="17">
-      <c r="B43" s="18"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="29" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="26"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="2:9" ht="17">
-      <c r="B44" s="18"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="29" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I44" s="26"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="2:9" ht="17">
-      <c r="B45" s="18"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="50" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="32" t="s">
         <v>32</v>
       </c>
       <c r="H45" s="11"/>
-      <c r="I45" s="27"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="2:9" ht="17">
-      <c r="B46" s="18"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="46" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="I46" s="25"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="18"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="29" t="s">
+      <c r="B47" s="49"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="36"/>
+      <c r="I47" s="28"/>
     </row>
     <row r="48" spans="2:9" ht="17">
-      <c r="B48" s="18"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="29" t="s">
+      <c r="B48" s="49"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="G48" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H48" s="9"/>
-      <c r="I48" s="26"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="2:9" ht="17">
-      <c r="B49" s="18"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="29" t="s">
+      <c r="B49" s="49"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I49" s="26"/>
+      <c r="I49" s="18"/>
     </row>
     <row r="50" spans="2:9" ht="17">
-      <c r="B50" s="18"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="50" t="s">
+      <c r="B50" s="49"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H50" s="43" t="s">
+      <c r="H50" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I50" s="27"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="2:9" ht="17">
-      <c r="B51" s="18"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="46" t="s">
+      <c r="B51" s="49"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="48" t="s">
+      <c r="H51" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="25"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="2:9" ht="17">
-      <c r="B52" s="18"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="28" t="s">
+      <c r="B52" s="49"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="G52" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="26"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="2:9" ht="17">
-      <c r="B53" s="18"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="50" t="s">
+      <c r="B53" s="49"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" s="43" t="s">
+      <c r="G53" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="I53" s="27"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="2:9" ht="17">
-      <c r="B54" s="18"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="46" t="s">
+      <c r="B54" s="49"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="48" t="s">
+      <c r="H54" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I54" s="25"/>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" spans="2:9" ht="17">
-      <c r="B55" s="18"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="47"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="54"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="26"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="2:9" ht="17">
-      <c r="B56" s="18"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="56" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="25"/>
+      <c r="G56" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" spans="2:9" ht="17">
-      <c r="B57" s="18"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="40" t="s">
+      <c r="B57" s="49"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="32" t="s">
         <v>32</v>
       </c>
       <c r="H57" s="12"/>
-      <c r="I57" s="27"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="17">
-      <c r="B58" s="18"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="45" t="s">
+      <c r="B58" s="49"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="23"/>
+      <c r="G58" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="2:9" ht="17">
-      <c r="B59" s="18"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="56" t="s">
+      <c r="B59" s="49"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="35" t="s">
+      <c r="G59" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="48" t="s">
+      <c r="H59" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="25"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="60" spans="2:9" ht="17">
-      <c r="B60" s="18"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="42" t="s">
+      <c r="B60" s="49"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="G60" s="50" t="s">
+      <c r="G60" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="43" t="s">
+      <c r="H60" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="I60" s="27"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="2:9" ht="17">
-      <c r="B61" s="18"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="56" t="s">
+      <c r="B61" s="49"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="G61" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="25"/>
+      <c r="G61" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="17"/>
     </row>
     <row r="62" spans="2:9" ht="17">
-      <c r="B62" s="18"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="50" t="s">
+      <c r="B62" s="49"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G62" s="40" t="s">
+      <c r="G62" s="32" t="s">
         <v>32</v>
       </c>
       <c r="H62" s="12"/>
-      <c r="I62" s="27"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="2:9" ht="17">
-      <c r="B63" s="5"/>
-      <c r="C63" s="53" t="s">
+      <c r="B63" s="49"/>
+      <c r="C63" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="44" t="s">
         <v>114</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -2143,311 +2158,373 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="26"/>
+      <c r="I63" s="18"/>
     </row>
     <row r="64" spans="2:9" ht="17">
-      <c r="B64" s="5"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="26"/>
+      <c r="I64" s="18"/>
     </row>
     <row r="65" spans="2:9" ht="17">
-      <c r="B65" s="5"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="26"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" spans="2:9" ht="17">
-      <c r="B66" s="5"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="26"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="2:9" ht="17">
-      <c r="B67" s="5"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="26"/>
+      <c r="I67" s="18"/>
     </row>
     <row r="68" spans="2:9" ht="17">
-      <c r="B68" s="5"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="26"/>
+      <c r="I68" s="18"/>
     </row>
     <row r="69" spans="2:9" ht="17">
-      <c r="B69" s="5"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
       <c r="E69" s="8" t="s">
         <v>115</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="26"/>
+      <c r="I69" s="18"/>
     </row>
     <row r="70" spans="2:9" ht="17">
-      <c r="B70" s="5"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="26"/>
+      <c r="I70" s="18"/>
     </row>
     <row r="71" spans="2:9" ht="17">
-      <c r="B71" s="5"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
       <c r="E71" s="8" t="s">
         <v>116</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="26"/>
+      <c r="I71" s="18"/>
     </row>
     <row r="72" spans="2:9" ht="17">
-      <c r="B72" s="5"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="26"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="2:9" ht="17">
-      <c r="B73" s="5"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
       <c r="E73" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="26"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="2:9" ht="17">
-      <c r="B74" s="5"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="29" t="s">
+      <c r="B74" s="49"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="26"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="2:9" ht="17">
-      <c r="B75" s="5"/>
-      <c r="C75" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="51"/>
-      <c r="E75" s="6"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="26"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="76" spans="2:9" ht="17">
-      <c r="B76" s="5"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="6"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="21"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="26"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="18"/>
     </row>
     <row r="77" spans="2:9" ht="17">
-      <c r="B77" s="5"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="6"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="26"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="2:9" ht="17">
-      <c r="B78" s="5"/>
-      <c r="C78" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" s="6"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="26"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="2:9" ht="17">
-      <c r="B79" s="5"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="6"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="26"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="2:9" ht="17">
-      <c r="B80" s="5"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="E80" s="6"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="26"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="2:9" ht="17">
-      <c r="B81" s="5"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="42"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="26"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="2:9" ht="17">
-      <c r="B82" s="5"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="26"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="2:9" ht="17">
-      <c r="B83" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" s="51"/>
-      <c r="E83" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="B83" s="49"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="26"/>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="2:9" ht="17">
-      <c r="B84" s="52"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>119</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="26"/>
+      <c r="I84" s="18"/>
     </row>
     <row r="85" spans="2:9" ht="17">
-      <c r="B85" s="52"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="26"/>
+      <c r="I85" s="18"/>
     </row>
     <row r="86" spans="2:9" ht="17">
-      <c r="B86" s="52"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="B86" s="49"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="26"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="2:9" ht="17">
-      <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="26"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="2:9" ht="17">
-      <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="26"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="2:9" ht="17">
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="27"/>
+      <c r="B89" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="42"/>
+      <c r="E89" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="2:9" ht="17">
+      <c r="B90" s="43"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="2:9" ht="17">
+      <c r="B91" s="43"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="2:9" ht="17">
+      <c r="B92" s="43"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="2:9" ht="17">
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="2:9" ht="17">
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="2:9" ht="17">
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C83:D86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="D63:D74"/>
-    <mergeCell ref="C63:C74"/>
-    <mergeCell ref="C75:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="C26:C62"/>
-    <mergeCell ref="B8:B62"/>
+  <mergeCells count="32">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D8:D25"/>
+    <mergeCell ref="C8:C25"/>
+    <mergeCell ref="E8:E14"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B8:B88"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="E46:E50"/>
     <mergeCell ref="E41:E45"/>
@@ -2459,11 +2536,21 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="D26:D36"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D8:D25"/>
-    <mergeCell ref="C8:C25"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D56:D62"/>
+    <mergeCell ref="C26:C62"/>
+    <mergeCell ref="C89:D92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="D63:D74"/>
+    <mergeCell ref="C63:C74"/>
+    <mergeCell ref="C81:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D75:D80"/>
+    <mergeCell ref="C75:C80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/管理端测试.xlsx
+++ b/管理端测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jojo/Desktop/测试/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuchengpu\Desktop\商城管理测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C234B5-2C8C-2C4F-BCAF-2FB76C067DFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2D3C5A-82F0-47D5-85A7-A74A165C6923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="154">
   <si>
     <t>商城管理</t>
   </si>
@@ -507,6 +507,131 @@
   </si>
   <si>
     <t>物流信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按订单号模糊搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按用户名模糊搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按用户手机号模糊搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号/手机号/用户名精确搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号/手机号/用户名/订单状态/支付类型/支付状态重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流公司：顺丰快递/美团/线下自取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填入物流单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额输入1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单金额0.2，退款金额大于订单金额未校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额输入1，备注输入"退一半"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款后重复点击申请退款弹框提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核失败不应该弹出退款界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款状态为未支付、退货申请中、已退货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款状态为审核失败/退货中时点击申请退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击订单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单金额不显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现弹框警告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款状态备注字数过多（500+）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确搜索SC202012011429419301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确搜索能显示，但按全部订单搜索不展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部页数栏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>显示第1页，共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0页</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +639,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +670,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -743,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,55 +1001,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,7 +1019,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,56 +1354,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="46.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="46.125" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="17">
-      <c r="B7" s="59" t="s">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
@@ -1277,17 +1420,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
-      <c r="B8" s="48" t="s">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B8" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="48" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -1299,11 +1442,11 @@
       <c r="H8" s="15"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
-      <c r="B9" s="49"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="57"/>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="53"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1313,11 +1456,11 @@
       <c r="H9" s="7"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
-      <c r="B10" s="49"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="57"/>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B10" s="53"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="20" t="s">
         <v>34</v>
       </c>
@@ -1327,11 +1470,11 @@
       <c r="H10" s="7"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
-      <c r="B11" s="49"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="57"/>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B11" s="53"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="20" t="s">
         <v>35</v>
       </c>
@@ -1341,11 +1484,11 @@
       <c r="H11" s="7"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
-      <c r="B12" s="49"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="57"/>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B12" s="53"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1355,11 +1498,11 @@
       <c r="H12" s="7"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
-      <c r="B13" s="49"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B13" s="53"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1369,11 +1512,11 @@
       <c r="H13" s="7"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
-      <c r="B14" s="49"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="58"/>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B14" s="53"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="11" t="s">
         <v>9</v>
       </c>
@@ -1387,10 +1530,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
-      <c r="B15" s="49"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B15" s="53"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="23" t="s">
         <v>12</v>
       </c>
@@ -1403,11 +1546,11 @@
       <c r="H15" s="30"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
-      <c r="B16" s="49"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="56" t="s">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B16" s="53"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="48" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -1421,11 +1564,11 @@
       </c>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="2:10" ht="17">
-      <c r="B17" s="49"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="57"/>
+    <row r="17" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B17" s="53"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1437,11 +1580,11 @@
       </c>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="2:10" ht="17">
-      <c r="B18" s="49"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="57"/>
+    <row r="18" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B18" s="53"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="8" t="s">
         <v>38</v>
       </c>
@@ -1451,11 +1594,11 @@
       <c r="H18" s="6"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="2:10" ht="17">
-      <c r="B19" s="49"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="57"/>
+    <row r="19" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B19" s="53"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="8" t="s">
         <v>39</v>
       </c>
@@ -1465,11 +1608,11 @@
       <c r="H19" s="6"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="2:10" ht="17">
-      <c r="B20" s="49"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="57"/>
+    <row r="20" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B20" s="53"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="21" t="s">
         <v>37</v>
       </c>
@@ -1479,11 +1622,11 @@
       <c r="H20" s="7"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="2:10" ht="17">
-      <c r="B21" s="49"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="57"/>
+    <row r="21" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="53"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="21" t="s">
         <v>45</v>
       </c>
@@ -1495,11 +1638,11 @@
       </c>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:10" ht="17">
-      <c r="B22" s="49"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="58"/>
+    <row r="22" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B22" s="53"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="34" t="s">
         <v>49</v>
       </c>
@@ -1511,11 +1654,11 @@
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="2:10" ht="17">
-      <c r="B23" s="49"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="58" t="s">
+    <row r="23" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B23" s="53"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="50" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -1527,11 +1670,11 @@
       <c r="H23" s="7"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:10" ht="17">
-      <c r="B24" s="49"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="63"/>
+    <row r="24" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B24" s="53"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="31" t="s">
         <v>48</v>
       </c>
@@ -1541,10 +1684,10 @@
       <c r="H24" s="12"/>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="2:10" ht="17">
-      <c r="B25" s="49"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+    <row r="25" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B25" s="53"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="23" t="s">
         <v>15</v>
       </c>
@@ -1557,12 +1700,12 @@
       <c r="H25" s="23"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="2:10" ht="17">
-      <c r="B26" s="49"/>
-      <c r="C26" s="45" t="s">
+    <row r="26" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B26" s="53"/>
+      <c r="C26" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="40" t="s">
@@ -1577,10 +1720,10 @@
       <c r="H26" s="23"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="2:10" ht="17">
-      <c r="B27" s="49"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="51"/>
+    <row r="27" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B27" s="53"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="41" t="s">
         <v>54</v>
       </c>
@@ -1593,11 +1736,11 @@
       <c r="H27" s="23"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="2:10" ht="17">
-      <c r="B28" s="49"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="53" t="s">
+    <row r="28" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B28" s="53"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="57" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -1609,11 +1752,11 @@
       <c r="H28" s="38"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="2:10" ht="17">
-      <c r="B29" s="49"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="54"/>
+    <row r="29" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B29" s="53"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="24" t="s">
         <v>64</v>
       </c>
@@ -1628,11 +1771,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="17">
-      <c r="B30" s="49"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="55"/>
+    <row r="30" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B30" s="53"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="31" t="s">
         <v>65</v>
       </c>
@@ -1642,11 +1785,11 @@
       <c r="H30" s="35"/>
       <c r="I30" s="19"/>
     </row>
-    <row r="31" spans="2:10" ht="17">
-      <c r="B31" s="49"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="53" t="s">
+    <row r="31" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B31" s="53"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="57" t="s">
         <v>59</v>
       </c>
       <c r="F31" s="25" t="s">
@@ -1660,11 +1803,11 @@
       </c>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="2:10" ht="17">
-      <c r="B32" s="49"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="55"/>
+    <row r="32" spans="2:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="53"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="31" t="s">
         <v>62</v>
       </c>
@@ -1674,11 +1817,11 @@
       <c r="H32" s="35"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="2:9" ht="17">
-      <c r="B33" s="49"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="53" t="s">
+    <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B33" s="53"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="57" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="24" t="s">
@@ -1690,11 +1833,11 @@
       <c r="H33" s="7"/>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="2:9" ht="17">
-      <c r="B34" s="49"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="54"/>
+    <row r="34" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B34" s="53"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="24" t="s">
         <v>68</v>
       </c>
@@ -1704,11 +1847,11 @@
       <c r="H34" s="7"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="2:9" ht="17">
-      <c r="B35" s="49"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="55"/>
+    <row r="35" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B35" s="53"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="31" t="s">
         <v>69</v>
       </c>
@@ -1720,10 +1863,10 @@
       </c>
       <c r="I35" s="19"/>
     </row>
-    <row r="36" spans="2:9" ht="17">
-      <c r="B36" s="49"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="52"/>
+    <row r="36" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B36" s="53"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="40" t="s">
         <v>18</v>
       </c>
@@ -1738,13 +1881,13 @@
       </c>
       <c r="I36" s="19"/>
     </row>
-    <row r="37" spans="2:9" ht="17">
-      <c r="B37" s="49"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="50" t="s">
+    <row r="37" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B37" s="53"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="54" t="s">
         <v>52</v>
       </c>
       <c r="F37" s="27" t="s">
@@ -1756,11 +1899,11 @@
       <c r="H37" s="15"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="2:9" ht="17">
-      <c r="B38" s="49"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
+    <row r="38" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="53"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="21" t="s">
         <v>74</v>
       </c>
@@ -1770,11 +1913,11 @@
       <c r="H38" s="7"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="2:9" ht="17">
-      <c r="B39" s="49"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+    <row r="39" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B39" s="53"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="39" t="s">
         <v>75</v>
       </c>
@@ -1784,10 +1927,10 @@
       <c r="H39" s="12"/>
       <c r="I39" s="19"/>
     </row>
-    <row r="40" spans="2:9" ht="17">
-      <c r="B40" s="49"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="51"/>
+    <row r="40" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B40" s="53"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="40" t="s">
         <v>54</v>
       </c>
@@ -1800,11 +1943,11 @@
       <c r="H40" s="23"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="2:9" ht="17">
-      <c r="B41" s="49"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="50" t="s">
+    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B41" s="53"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="54" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -1818,11 +1961,11 @@
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="2:9" ht="17">
-      <c r="B42" s="49"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
+    <row r="42" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B42" s="53"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
       <c r="F42" s="21" t="s">
         <v>106</v>
       </c>
@@ -1832,11 +1975,11 @@
       <c r="H42" s="8"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="2:9" ht="17">
-      <c r="B43" s="49"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
+    <row r="43" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B43" s="53"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="21" t="s">
         <v>98</v>
       </c>
@@ -1848,11 +1991,11 @@
       </c>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="2:9" ht="17">
-      <c r="B44" s="49"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
+    <row r="44" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B44" s="53"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
       <c r="F44" s="21" t="s">
         <v>96</v>
       </c>
@@ -1864,11 +2007,11 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="2:9" ht="17">
-      <c r="B45" s="49"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52"/>
+    <row r="45" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B45" s="53"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="39" t="s">
         <v>80</v>
       </c>
@@ -1878,11 +2021,11 @@
       <c r="H45" s="11"/>
       <c r="I45" s="19"/>
     </row>
-    <row r="46" spans="2:9" ht="17">
-      <c r="B46" s="49"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="53" t="s">
+    <row r="46" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B46" s="53"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="57" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="27" t="s">
@@ -1896,11 +2039,11 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="49"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="54"/>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B47" s="53"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="21" t="s">
         <v>81</v>
       </c>
@@ -1910,11 +2053,11 @@
       <c r="H47" s="6"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="2:9" ht="17">
-      <c r="B48" s="49"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="54"/>
+    <row r="48" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B48" s="53"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="21" t="s">
         <v>85</v>
       </c>
@@ -1924,11 +2067,11 @@
       <c r="H48" s="9"/>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="2:9" ht="17">
-      <c r="B49" s="49"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="54"/>
+    <row r="49" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B49" s="53"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="21" t="s">
         <v>83</v>
       </c>
@@ -1940,11 +2083,11 @@
       </c>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="2:9" ht="17">
-      <c r="B50" s="49"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="55"/>
+    <row r="50" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B50" s="53"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="39" t="s">
         <v>87</v>
       </c>
@@ -1956,11 +2099,11 @@
       </c>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="2:9" ht="17">
-      <c r="B51" s="49"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="53" t="s">
+    <row r="51" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B51" s="53"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="57" t="s">
         <v>77</v>
       </c>
       <c r="F51" s="27" t="s">
@@ -1974,11 +2117,11 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="2:9" ht="17">
-      <c r="B52" s="49"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="54"/>
+    <row r="52" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B52" s="53"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="20" t="s">
         <v>89</v>
       </c>
@@ -1988,11 +2131,11 @@
       <c r="H52" s="9"/>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" spans="2:9" ht="17">
-      <c r="B53" s="49"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="55"/>
+    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B53" s="53"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="59"/>
       <c r="F53" s="39" t="s">
         <v>90</v>
       </c>
@@ -2004,11 +2147,11 @@
       </c>
       <c r="I53" s="19"/>
     </row>
-    <row r="54" spans="2:9" ht="17">
-      <c r="B54" s="49"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="53" t="s">
+    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B54" s="53"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="57" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="27" t="s">
@@ -2022,23 +2165,23 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="2:9" ht="17">
-      <c r="B55" s="49"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="54"/>
+    <row r="55" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B55" s="53"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="2:9" ht="17">
-      <c r="B56" s="49"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="45" t="s">
+    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B56" s="53"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="60" t="s">
         <v>52</v>
       </c>
       <c r="F56" s="27" t="s">
@@ -2050,11 +2193,11 @@
       <c r="H56" s="15"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="2:9" ht="17">
-      <c r="B57" s="49"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="46"/>
+    <row r="57" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B57" s="53"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="61"/>
       <c r="F57" s="32" t="s">
         <v>102</v>
       </c>
@@ -2064,10 +2207,10 @@
       <c r="H57" s="12"/>
       <c r="I57" s="19"/>
     </row>
-    <row r="58" spans="2:9" ht="17">
-      <c r="B58" s="49"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+    <row r="58" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B58" s="53"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="37" t="s">
         <v>54</v>
       </c>
@@ -2080,11 +2223,11 @@
       <c r="H58" s="23"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="2:9" ht="17">
-      <c r="B59" s="49"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="45" t="s">
+    <row r="59" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B59" s="53"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="60" t="s">
         <v>77</v>
       </c>
       <c r="F59" s="27" t="s">
@@ -2098,11 +2241,11 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="2:9" ht="17">
-      <c r="B60" s="49"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="46"/>
+    <row r="60" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B60" s="53"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="61"/>
       <c r="F60" s="34" t="s">
         <v>109</v>
       </c>
@@ -2114,11 +2257,11 @@
       </c>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="2:9" ht="17">
-      <c r="B61" s="49"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="45" t="s">
+    <row r="61" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B61" s="53"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="60" t="s">
         <v>104</v>
       </c>
       <c r="F61" s="27" t="s">
@@ -2130,11 +2273,11 @@
       <c r="H61" s="15"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="2:9" ht="17">
-      <c r="B62" s="49"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
+    <row r="62" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B62" s="53"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
       <c r="F62" s="39" t="s">
         <v>112</v>
       </c>
@@ -2144,12 +2287,12 @@
       <c r="H62" s="12"/>
       <c r="I62" s="19"/>
     </row>
-    <row r="63" spans="2:9" ht="17">
-      <c r="B63" s="49"/>
-      <c r="C63" s="44" t="s">
+    <row r="63" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B63" s="53"/>
+      <c r="C63" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="44" t="s">
+      <c r="D63" s="65" t="s">
         <v>114</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -2160,20 +2303,20 @@
       <c r="H63" s="7"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="2:9" ht="17">
-      <c r="B64" s="49"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
+    <row r="64" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B64" s="53"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="7"/>
       <c r="I64" s="18"/>
     </row>
-    <row r="65" spans="2:9" ht="17">
-      <c r="B65" s="49"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
+    <row r="65" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B65" s="53"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="8" t="s">
         <v>54</v>
       </c>
@@ -2182,20 +2325,20 @@
       <c r="H65" s="7"/>
       <c r="I65" s="18"/>
     </row>
-    <row r="66" spans="2:9" ht="17">
-      <c r="B66" s="49"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
+    <row r="66" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B66" s="53"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
       <c r="I66" s="18"/>
     </row>
-    <row r="67" spans="2:9" ht="17">
-      <c r="B67" s="49"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
+    <row r="67" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B67" s="53"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="8" t="s">
         <v>53</v>
       </c>
@@ -2204,20 +2347,20 @@
       <c r="H67" s="7"/>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" spans="2:9" ht="17">
-      <c r="B68" s="49"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
+    <row r="68" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B68" s="53"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="7"/>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" spans="2:9" ht="17">
-      <c r="B69" s="49"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
+    <row r="69" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B69" s="53"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="8" t="s">
         <v>115</v>
       </c>
@@ -2226,20 +2369,20 @@
       <c r="H69" s="7"/>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="2:9" ht="17">
-      <c r="B70" s="49"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
+    <row r="70" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B70" s="53"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="7"/>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="2:9" ht="17">
-      <c r="B71" s="49"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
+    <row r="71" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B71" s="53"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="8" t="s">
         <v>116</v>
       </c>
@@ -2248,20 +2391,20 @@
       <c r="H71" s="7"/>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="2:9" ht="17">
-      <c r="B72" s="49"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
+    <row r="72" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B72" s="53"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="2:9" ht="17">
-      <c r="B73" s="49"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
+    <row r="73" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B73" s="53"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
       <c r="E73" s="8" t="s">
         <v>77</v>
       </c>
@@ -2270,10 +2413,10 @@
       <c r="H73" s="7"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="2:9" ht="17">
-      <c r="B74" s="49"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
+    <row r="74" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B74" s="53"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
       <c r="E74" s="21" t="s">
         <v>18</v>
       </c>
@@ -2282,249 +2425,470 @@
       <c r="H74" s="7"/>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="2:9" ht="17">
-      <c r="B75" s="49"/>
-      <c r="C75" s="42" t="s">
+    <row r="75" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B75" s="53"/>
+      <c r="C75" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="63" t="s">
         <v>124</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="13"/>
+      <c r="F75" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="I75" s="18"/>
     </row>
-    <row r="76" spans="2:9" ht="17">
-      <c r="B76" s="49"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
+    <row r="76" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B76" s="53"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="21"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>130</v>
+      </c>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" spans="2:9" ht="17">
-      <c r="B77" s="49"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="13"/>
+    <row r="77" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B77" s="53"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" s="43"/>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" spans="2:9" ht="17">
-      <c r="B78" s="49"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
+    <row r="78" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B78" s="53"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
       <c r="E78" s="21"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="F78" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G78" s="66" t="s">
+        <v>129</v>
+      </c>
       <c r="H78" s="13"/>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" spans="2:9" ht="17">
-      <c r="B79" s="49"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="13"/>
+    <row r="79" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B79" s="53"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="F79" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" spans="2:9" ht="17">
-      <c r="B80" s="49"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+    <row r="80" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B80" s="53"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" s="66" t="s">
+        <v>129</v>
+      </c>
       <c r="H80" s="13"/>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" spans="2:9" ht="17">
-      <c r="B81" s="49"/>
-      <c r="C81" s="42" t="s">
+    <row r="81" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B81" s="53"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H81" s="13"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B82" s="53"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="13"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B83" s="53"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="H83" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I83" s="18"/>
+    </row>
+    <row r="84" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B84" s="53"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H84" s="43"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B85" s="53"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="G85" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H85" s="43"/>
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B86" s="53"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H86" s="43"/>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B87" s="53"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H87" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I87" s="18"/>
+    </row>
+    <row r="88" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B88" s="53"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B89" s="53"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="G89" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B90" s="53"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B91" s="53"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B92" s="53"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B93" s="53"/>
+      <c r="C93" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D81" s="42"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="18"/>
-    </row>
-    <row r="82" spans="2:9" ht="17">
-      <c r="B82" s="49"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="18"/>
-    </row>
-    <row r="83" spans="2:9" ht="17">
-      <c r="B83" s="49"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="18"/>
-    </row>
-    <row r="84" spans="2:9" ht="17">
-      <c r="B84" s="49"/>
-      <c r="C84" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="18"/>
-    </row>
-    <row r="85" spans="2:9" ht="17">
-      <c r="B85" s="49"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="18"/>
-    </row>
-    <row r="86" spans="2:9" ht="17">
-      <c r="B86" s="49"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="18"/>
-    </row>
-    <row r="87" spans="2:9" ht="17">
-      <c r="B87" s="49"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="18"/>
-    </row>
-    <row r="88" spans="2:9" ht="17">
-      <c r="B88" s="49"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="18"/>
-    </row>
-    <row r="89" spans="2:9" ht="17">
-      <c r="B89" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="18"/>
-    </row>
-    <row r="90" spans="2:9" ht="17">
-      <c r="B90" s="43"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="18"/>
-    </row>
-    <row r="91" spans="2:9" ht="17">
-      <c r="B91" s="43"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="18"/>
-    </row>
-    <row r="92" spans="2:9" ht="17">
-      <c r="B92" s="43"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="18"/>
-    </row>
-    <row r="93" spans="2:9" ht="17">
-      <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="63"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="7"/>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" spans="2:9" ht="17">
-      <c r="B94" s="5"/>
-      <c r="C94" s="6"/>
+    <row r="94" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B94" s="53"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="63"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="7"/>
       <c r="I94" s="18"/>
     </row>
-    <row r="95" spans="2:9" ht="17">
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="19"/>
+    <row r="95" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B95" s="53"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B96" s="53"/>
+      <c r="C96" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B97" s="53"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B98" s="53"/>
+      <c r="C98" s="63"/>
+      <c r="D98" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B99" s="53"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B100" s="53"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B101" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="63"/>
+      <c r="E101" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B102" s="64"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B103" s="64"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B104" s="64"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="18"/>
+    </row>
+    <row r="106" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="18"/>
+    </row>
+    <row r="107" spans="2:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B107" s="10"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C26:C62"/>
+    <mergeCell ref="C101:D104"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="D63:D74"/>
+    <mergeCell ref="C63:C74"/>
+    <mergeCell ref="C93:D95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D75:D92"/>
+    <mergeCell ref="C75:C92"/>
+    <mergeCell ref="D26:D36"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D56:D62"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="D8:D25"/>
     <mergeCell ref="C8:C25"/>
     <mergeCell ref="E8:E14"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B8:B88"/>
+    <mergeCell ref="B8:B100"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="E46:E50"/>
     <mergeCell ref="E41:E45"/>
@@ -2535,24 +2899,9 @@
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D26:D36"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D56:D62"/>
-    <mergeCell ref="C26:C62"/>
-    <mergeCell ref="C89:D92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="D63:D74"/>
-    <mergeCell ref="C63:C74"/>
-    <mergeCell ref="C81:D83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D75:D80"/>
-    <mergeCell ref="C75:C80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>